--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -49,8 +49,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -70,8 +70,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -85,6 +99,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -93,60 +114,85 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,52 +205,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,19 +215,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,13 +317,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,133 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,13 +409,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,6 +454,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -468,32 +481,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,31 +514,31 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,120 +547,123 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,7 +979,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -986,7 +988,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1021,10 +1023,10 @@
       <c r="C2">
         <v>4564</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>45</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>45456</v>
       </c>
     </row>
@@ -1038,10 +1040,10 @@
       <c r="C3">
         <v>4565</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>46</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>45457</v>
       </c>
     </row>
@@ -1055,10 +1057,10 @@
       <c r="C4">
         <v>4566</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>47</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>45458</v>
       </c>
     </row>

--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>姓名</t>
   </si>
@@ -22,25 +22,34 @@
     <t>email</t>
   </si>
   <si>
-    <t>工资</t>
-  </si>
-  <si>
-    <t>个税</t>
-  </si>
-  <si>
-    <t>总计</t>
+    <t>超神</t>
+  </si>
+  <si>
+    <t>超鬼</t>
   </si>
   <si>
     <t>王二狗</t>
   </si>
   <si>
-    <t>xxx@qq.com</t>
-  </si>
-  <si>
-    <t>李二鲜</t>
-  </si>
-  <si>
-    <t>张三蛋</t>
+    <t>win5do@163.com</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>张三丰</t>
+  </si>
+  <si>
+    <t>244495733@qq.com</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>赵四儿</t>
+  </si>
+  <si>
+    <t>wufeng@baimifan.net</t>
   </si>
 </sst>
 </file>
@@ -48,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,31 +80,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,31 +130,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,17 +161,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,37 +170,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +183,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,12 +224,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -233,13 +344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,31 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,115 +386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,17 +418,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,30 +447,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,8 +469,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,15 +515,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,19 +535,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,121 +556,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -988,87 +1003,78 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="11.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="26.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>4564</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45456</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>4565</v>
-      </c>
-      <c r="D3" s="2">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45457</v>
-      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>500</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>4566</v>
-      </c>
-      <c r="D4" s="2">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45458</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>750</v>
+      </c>
+      <c r="D4" s="3">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="xxx@qq.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="xxx@qq.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="xxx@qq.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="win5do@163.com" tooltip="mailto:win5do@163.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="244495733@qq.com" tooltip="mailto:244495733@qq.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="wufeng@baimifan.net" tooltip="mailto:wufeng@baimifan.net"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>姓名</t>
   </si>
@@ -31,25 +31,10 @@
     <t>王二狗</t>
   </si>
   <si>
-    <t>win5do@163.com</t>
+    <t>244495733@qq.com</t>
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>张三丰</t>
-  </si>
-  <si>
-    <t>244495733@qq.com</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>赵四儿</t>
-  </si>
-  <si>
-    <t>wufeng@baimifan.net</t>
   </si>
 </sst>
 </file>
@@ -57,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,6 +65,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -87,14 +79,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,6 +140,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -117,14 +179,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,84 +195,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,187 +209,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,17 +406,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,6 +427,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -462,30 +447,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +468,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -515,6 +485,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,145 +508,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,16 +985,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="26.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="26.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1041,40 +1026,9 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>500</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>750</v>
-      </c>
-      <c r="D4" s="3">
-        <v>388</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="win5do@163.com" tooltip="mailto:win5do@163.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="244495733@qq.com" tooltip="mailto:244495733@qq.com"/>
-    <hyperlink ref="B4" r:id="rId3" display="wufeng@baimifan.net" tooltip="mailto:wufeng@baimifan.net"/>
+    <hyperlink ref="B2" r:id="rId1" display="244495733@qq.com" tooltip="mailto:244495733@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
